--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3098393.163628844</v>
+        <v>3206544.256543139</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8291985.643365032</v>
+        <v>8298028.653952288</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>184.6543605014858</v>
+        <v>220.3304744373148</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -820,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>196.4017961483597</v>
+        <v>100.2577431839917</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>365.5714199002396</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>239.053810284556</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>1.781160222249666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>34.31526278804213</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>102.6813915314139</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>318.8060012552521</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>95.86876176504011</v>
+        <v>106.2909818561836</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>48.15331591778289</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>13.72582864853726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,16 +1660,16 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>77.12517954596439</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.2632269748843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>20.66101211578991</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>124.8808320771207</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,19 +2526,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>140.7215037338436</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>53.07327741456097</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>9.570729811036321</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>56.45752097953178</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.6164309267711</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>98.79136808967668</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053495</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.36569740310517</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>106.3612762946752</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2857567969057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91555826189416</v>
+        <v>137.5999985461714</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>28.75188085812011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>192.7715349547537</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1599.080600298115</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2375.819772338048</v>
+        <v>1675.275557403713</v>
       </c>
       <c r="X2" t="n">
-        <v>2375.819772338048</v>
+        <v>1675.275557403713</v>
       </c>
       <c r="Y2" t="n">
-        <v>1985.680440362237</v>
+        <v>1285.136225427902</v>
       </c>
     </row>
     <row r="3">
@@ -4389,40 +4391,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>1462.801540649783</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="V4" t="n">
-        <v>1438.060467399387</v>
+        <v>2161.856726415001</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>1872.43955637804</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>1644.450005480023</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>1644.450005480023</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1246.899958573734</v>
+        <v>867.511359413126</v>
       </c>
       <c r="C5" t="n">
-        <v>877.9374416333219</v>
+        <v>498.5488424727143</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>498.5488424727143</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>498.5488424727143</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2320.87083316323</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1989.807945819659</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1637.039290549545</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1637.039290549545</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1246.899958573734</v>
+        <v>1254.111199477248</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,22 +4649,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.1231987576349</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="C7" t="n">
-        <v>366.1231987576349</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4723,16 +4725,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1601.784238470414</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1601.784238470414</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1601.784238470414</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1312.665900974252</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1057.981412768365</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W7" t="n">
-        <v>768.5642427314048</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X7" t="n">
-        <v>768.5642427314048</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y7" t="n">
-        <v>547.7716635878746</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>3015.909496688935</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2684.846609345364</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>2332.07795407525</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="X8" t="n">
-        <v>2332.07795407525</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>1653.287154902436</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.4603107317583</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>477.664237045805</v>
       </c>
       <c r="X10" t="n">
-        <v>997.2528898752885</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.4603107317583</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978459</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154528</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,7 +5278,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5309,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>810.0653816078141</v>
+        <v>1029.681434529216</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>860.7452516013095</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>710.6286121889738</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>562.7155186065806</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2421.444672494519</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2238.589838149423</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.988373172364</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.913146516562</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.913146516562</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1440.495976479601</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1212.506425581584</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>991.7138464380538</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
@@ -5522,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,13 +5597,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
         <v>1577.52840832642</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5831,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>2149.810879820877</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.613315601761</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>888.6771326738537</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>738.560493261518</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>590.6473996791249</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>443.7574521812145</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.043910473548</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.05435957553</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.261780432</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614387</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263192</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C31" t="n">
-        <v>680.4481746984125</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860768</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057736</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258108</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602306</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396419</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359459</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>849.3843576263192</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,10 +6785,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188003</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908935</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908935</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908935</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908935</v>
+        <v>417.4044582545033</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189236</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533434</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327547</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925698</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490398</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6935,10 +6937,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3227.225672628158</v>
+        <v>3053.935450426146</v>
       </c>
       <c r="C37" t="n">
-        <v>3058.289489700251</v>
+        <v>2884.99926749824</v>
       </c>
       <c r="D37" t="n">
-        <v>2908.172850287915</v>
+        <v>2734.882628085904</v>
       </c>
       <c r="E37" t="n">
-        <v>2760.259756705522</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F37" t="n">
-        <v>2613.369809207612</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
         <v>2419.773435218391</v>
@@ -7117,28 +7119,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T37" t="n">
-        <v>4690.833152398593</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U37" t="n">
-        <v>4401.757925742791</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V37" t="n">
-        <v>4147.073437536905</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W37" t="n">
-        <v>3857.656267499944</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X37" t="n">
-        <v>3629.666716601927</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y37" t="n">
-        <v>3408.874137458397</v>
+        <v>3235.583915256386</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708866</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429798</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429798</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429798</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429798</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235167</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541322</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.27973288552</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679634</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642673</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744656</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011261</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.899304487672</v>
+        <v>1090.767110287001</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597652</v>
+        <v>921.8309273590944</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474296</v>
+        <v>771.7142879467586</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650367</v>
+        <v>623.8011943643655</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235167</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258108</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602306</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396419</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359459</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179116</v>
+        <v>1272.415575117241</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7630,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.446544241743</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100.4621571004295</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>68.29586847696686</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.11201973523738</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23907,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,16 +23940,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>146.5858089828379</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>40.6433062151481</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>145.8014946027474</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>123.3744592024055</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.96822242532357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>66.73277020259216</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392193862</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.1584408891635</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>112.2233770574196</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.11969353038239</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.5054897610369</v>
+        <v>7.821049476759839</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>24.63391537253457</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>725120.9322463836</v>
+        <v>731657.0524975616</v>
       </c>
     </row>
     <row r="5">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712962.6583438911</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312476</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.274728755</v>
-      </c>
       <c r="K2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287551</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307092</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719696</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719711</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719711</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719711</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171971</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719794</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622391.8709312612</v>
+        <v>-622391.8709312613</v>
       </c>
       <c r="C6" t="n">
-        <v>492359.9126446591</v>
+        <v>492359.9126446585</v>
       </c>
       <c r="D6" t="n">
-        <v>331156.0643964458</v>
+        <v>492359.9126446593</v>
       </c>
       <c r="E6" t="n">
-        <v>272210.9146357736</v>
+        <v>90137.93481858291</v>
       </c>
       <c r="F6" t="n">
+        <v>597623.3764431286</v>
+      </c>
+      <c r="G6" t="n">
+        <v>597623.3764431288</v>
+      </c>
+      <c r="H6" t="n">
         <v>597623.3764431285</v>
       </c>
-      <c r="G6" t="n">
-        <v>597623.3764431285</v>
-      </c>
-      <c r="H6" t="n">
-        <v>597623.3764431289</v>
-      </c>
       <c r="I6" t="n">
-        <v>597623.3764431283</v>
+        <v>597623.3764431286</v>
       </c>
       <c r="J6" t="n">
-        <v>430018.1986331457</v>
+        <v>430018.1986331461</v>
       </c>
       <c r="K6" t="n">
-        <v>597623.3764431283</v>
+        <v>597623.3764431286</v>
       </c>
       <c r="L6" t="n">
-        <v>549329.4064349374</v>
+        <v>597623.3764431288</v>
       </c>
       <c r="M6" t="n">
-        <v>512568.3485076163</v>
+        <v>465016.0827142019</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431281</v>
+        <v>597623.3764431288</v>
       </c>
       <c r="O6" t="n">
         <v>597623.3764431286</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431283</v>
+        <v>597623.3764431287</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>164.5866082159272</v>
+        <v>128.9104942800982</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27540,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>55.73584717546831</v>
+        <v>151.8799001398363</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>41.30462584147182</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>11.99143984390602</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5254398225545</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>67.2423096315315</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>148.3137804274881</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>30.43496746216096</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>129.840893623997</v>
+        <v>119.4186735328535</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283052</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32549,13 +32551,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>150.7833302198383</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,16 +32794,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33026,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182826</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,13 +33505,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>268.1779244693588</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200301</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>665.2579603615019</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34778,22 +34780,22 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>553.2044093850077</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652754</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676405</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.73094315394616</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,13 +36199,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36613,10 +36615,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949316</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>130.3364854949998</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366968</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>522.6617159170574</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3206544.256543139</v>
+        <v>3202407.09929299</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>112.3241586054584</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>220.3304744373148</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>54.80909381784145</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>100.2577431839917</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>365.5714199002396</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>70.49595672079386</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>1.781160222249666</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>66.40055121331467</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920584</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>318.8060012552521</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>106.2909818561836</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144417</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>48.15331591778289</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>97.22826981530133</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444168</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>77.12517954596439</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176064</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>123.7971820797021</v>
       </c>
       <c r="T19" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>20.66101211578991</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703258</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>140.7215037338436</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>9.570729811036321</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.45752097953178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161238</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.79136808967668</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.3612762946752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>137.5999985461714</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>192.7715349547537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>898.5363853637798</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="C2" t="n">
-        <v>898.5363853637798</v>
+        <v>993.7429799877395</v>
       </c>
       <c r="D2" t="n">
-        <v>540.2706867570294</v>
+        <v>635.4772813809891</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>249.6890287827449</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>242.7435280335414</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>231.0791817982343</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1675.275557403713</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1675.275557403713</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>1285.136225427902</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="3">
@@ -4406,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>845.991191822219</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1462.801540649783</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>1293.865357721877</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>1293.865357721877</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>1293.865357721877</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1293.865357721877</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075599</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="U4" t="n">
-        <v>2263.127174075599</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="V4" t="n">
-        <v>2161.856726415001</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="W4" t="n">
-        <v>1872.43955637804</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>1644.450005480023</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>1644.450005480023</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>867.511359413126</v>
+        <v>934.6665353554984</v>
       </c>
       <c r="C5" t="n">
-        <v>498.5488424727143</v>
+        <v>565.7040184150867</v>
       </c>
       <c r="D5" t="n">
-        <v>498.5488424727143</v>
+        <v>207.4383198083362</v>
       </c>
       <c r="E5" t="n">
-        <v>498.5488424727143</v>
+        <v>207.4383198083362</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>200.4928190591327</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>188.8284728238257</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,7 +4567,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.250531453059</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1254.111199477248</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.04593830764924</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C7" t="n">
-        <v>53.04593830764924</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D7" t="n">
-        <v>53.04593830764924</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>53.04593830764924</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>53.04593830764924</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056666</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764924</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.04593830764924</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1653.287154902436</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>1284.324637962024</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0589393552737</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1653.287154902436</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1653.287154902436</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1653.287154902436</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>575.62568451442</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>870.3292415458916</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827656</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>477.664237045805</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>370.2996089082458</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.2996089082458</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168645</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436272</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5053,40 +5053,40 @@
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J12" t="n">
-        <v>2231.588527385791</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>2257.062161108198</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>2257.062161108198</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="M12" t="n">
-        <v>2854.44064873475</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N12" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473698</v>
+        <v>931.471060978407</v>
       </c>
       <c r="C13" t="n">
-        <v>746.1673476194629</v>
+        <v>762.5348780505</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381641</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557709</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5211,40 +5211,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1113.119525808647</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1113.119525808647</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362717</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.681434529216</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7452516013095</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6286121889738</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7155186065806</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5448,40 +5448,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.329899359456</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5685,40 +5685,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396757</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,16 +5983,16 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511393</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.240688199802</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="26">
@@ -6214,46 +6214,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2187.395141638036</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1898.319914982233</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1643.635426776346</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1354.218256739386</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="32">
@@ -6682,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6718,16 +6718,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1031.260321675049</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>862.3241387471426</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>712.2074993348068</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>564.2944057524137</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>417.4044582545033</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1433.701365648819</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1212.908786505289</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3053.935450426146</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2884.99926749824</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>2734.882628085904</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3235.583915256386</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.767110287001</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>921.8309273590944</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>771.7142879467586</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>623.8011943643655</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015258</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1272.415575117241</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2002.343823311048</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>255.5240487471575</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>186.591198401905</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282434</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>154.0169020165192</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.4621571004295</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>128.4813855737359</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
-        <v>68.29586847696686</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405083</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194254</v>
       </c>
       <c r="T19" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>146.5858089828379</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194315</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194319</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>39.70888054695307</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.3744592024055</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.4693302300322</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>66.73277020259216</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.2233770574196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>7.821049476759839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>24.63391537253457</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="11">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287554</v>
@@ -26340,22 +26340,22 @@
         <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245466</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719483</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171949</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719573</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719572</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719613</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171961</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26472,16 +26472,16 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622391.8709312613</v>
+        <v>-622391.8709312608</v>
       </c>
       <c r="C6" t="n">
-        <v>492359.9126446585</v>
+        <v>492359.9126446591</v>
       </c>
       <c r="D6" t="n">
-        <v>492359.9126446593</v>
+        <v>492359.9126446591</v>
       </c>
       <c r="E6" t="n">
-        <v>90137.93481858291</v>
+        <v>89790.55556422484</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887721</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431288</v>
+        <v>597275.9971887722</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.3764431285</v>
+        <v>597275.9971887723</v>
       </c>
       <c r="I6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.9971887716</v>
       </c>
       <c r="J6" t="n">
-        <v>430018.1986331461</v>
+        <v>429670.8193787892</v>
       </c>
       <c r="K6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.997188772</v>
       </c>
       <c r="L6" t="n">
-        <v>597623.3764431288</v>
+        <v>597275.9971887718</v>
       </c>
       <c r="M6" t="n">
-        <v>465016.0827142019</v>
+        <v>464668.703459845</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431288</v>
+        <v>597275.9971887718</v>
       </c>
       <c r="O6" t="n">
-        <v>597623.3764431286</v>
+        <v>597275.997188772</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431287</v>
+        <v>597275.9971887718</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26798,28 +26798,28 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241353</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>188.694393956947</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>128.9104942800982</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>165.9396021793705</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>151.8799001398363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>41.30462584147182</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>230.5225958416115</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5254398225545</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>220.1224471232763</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802033</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>30.43496746216096</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>119.4186735328535</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.240074875066057e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-7.813736929287339e-14</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
     </row>
     <row r="17">
@@ -29021,13 +29021,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-5.194296049065633e-14</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.158000898236612e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283052</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>277.4567226539297</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>268.1779244693588</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200301</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>665.2579603615019</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>553.2044093850077</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>436.2707275254373</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>617.0987427660937</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>340.604398260004</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,13 +35263,13 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396424</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394616</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.9023428740554</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,22 +35573,22 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36290,16 +36290,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>395.0475418999253</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36527,16 +36527,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>130.3364854949998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366968</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>522.6617159170574</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3202407.09929299</v>
+        <v>3204167.629595774</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8298028.653952288</v>
+        <v>8298028.653952289</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>112.3241586054584</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>263.9656533758505</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>54.80909381784145</v>
+        <v>54.809093817841</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6580847920584</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>70.49595672079386</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>66.40055121331467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920584</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>259.6580847920577</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1311,7 +1311,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>23.945637262086</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472227</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144417</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>97.22826981530133</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>78.58522891595292</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444168</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176064</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856562</v>
+        <v>5.890337106877502</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797021</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703258</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788178581</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695533</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>125.8152577453158</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>41.55695577161238</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>18.66234525555492</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>993.7429799877395</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C2" t="n">
-        <v>993.7429799877395</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D2" t="n">
-        <v>635.4772813809891</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E2" t="n">
-        <v>249.6890287827449</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>242.7435280335414</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>231.0791817982343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2295.707355293236</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1942.938700023122</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.342820051861</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.342820051861</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="3">
@@ -4391,13 +4391,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,34 +4406,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4479,43 +4479,43 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
         <v>1281.871244721818</v>
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554984</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C5" t="n">
-        <v>565.7040184150867</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4383198083362</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4383198083362</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>200.4928190591327</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>188.8284728238257</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656512</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395432</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>938.9442613508774</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.374856222664</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.385305324647</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.592726181117</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886161</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818656</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251363</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>575.62568451442</v>
+        <v>423.1489515180659</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458916</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296254</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>75.43429895394854</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -5004,10 +5004,10 @@
         <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168645</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436272</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192613</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273915</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969296</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969296</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033213</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.471060978407</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780505</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381641</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557709</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578604</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1113.119525808647</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808647</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362717</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273915</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400711</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121641</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121641</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121641</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121641</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578604</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000584</v>
+        <v>99.7664985094643</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5448,40 +5448,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138412</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516147</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348534</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188011</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5685,25 +5685,25 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
         <v>1746.193029533436</v>
@@ -5712,13 +5712,13 @@
         <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290589</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925712</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.309241249041</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188011</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511393</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
         <v>2254.869721166297</v>
@@ -6186,13 +6186,13 @@
         <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290589</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925712</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.309241249041</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6250,28 +6250,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311364</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032295</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2404.986360578632</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.384895601573</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613761</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6697,28 +6697,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.591198401905</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.0169020165196</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.36925650589404</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>154.0169020165192</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>129.4330134067492</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>128.4813855737359</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>139.9994244361419</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405083</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856562</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194254</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194315</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194319</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>39.70888054695307</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>139.4693302300322</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>148.5844758430729</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="11">
@@ -26316,43 +26316,43 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287557</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245466</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719483</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171949</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719573</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719572</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719629</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719613</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622391.8709312608</v>
+        <v>-622391.8709312605</v>
       </c>
       <c r="C6" t="n">
-        <v>492359.9126446591</v>
+        <v>492359.9126446583</v>
       </c>
       <c r="D6" t="n">
-        <v>492359.9126446591</v>
+        <v>492359.9126446594</v>
       </c>
       <c r="E6" t="n">
-        <v>89790.55556422484</v>
+        <v>90103.19689314648</v>
       </c>
       <c r="F6" t="n">
-        <v>597275.9971887721</v>
+        <v>597588.6385176933</v>
       </c>
       <c r="G6" t="n">
-        <v>597275.9971887722</v>
+        <v>597588.638517693</v>
       </c>
       <c r="H6" t="n">
-        <v>597275.9971887723</v>
+        <v>597588.638517693</v>
       </c>
       <c r="I6" t="n">
-        <v>597275.9971887716</v>
+        <v>597588.6385176932</v>
       </c>
       <c r="J6" t="n">
-        <v>429670.8193787892</v>
+        <v>429983.4607077102</v>
       </c>
       <c r="K6" t="n">
-        <v>597275.997188772</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="L6" t="n">
-        <v>597275.9971887718</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="M6" t="n">
-        <v>464668.703459845</v>
+        <v>464981.3447887662</v>
       </c>
       <c r="N6" t="n">
-        <v>597275.9971887718</v>
+        <v>597588.6385176932</v>
       </c>
       <c r="O6" t="n">
-        <v>597275.997188772</v>
+        <v>597588.6385176929</v>
       </c>
       <c r="P6" t="n">
-        <v>597275.9971887718</v>
+        <v>597588.6385176932</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241353</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996104</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996102</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996104</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>188.694393956947</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27438,7 +27438,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>63.78660509428437</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>165.9396021793705</v>
+        <v>165.939602179371</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2722852802033</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>230.5225958416115</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>220.1224471232763</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802033</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>68.09417367807725</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181444</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.240074875066057e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-7.813736929287339e-14</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29021,13 +29021,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-5.194296049065633e-14</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.158000898236612e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31536,7 +31536,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31606,22 +31606,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31688,10 +31688,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31706,13 +31706,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31752,34 +31752,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31791,10 +31791,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>277.4567226539297</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>230.9747494877442</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578894</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33204,10 +33204,10 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33666,7 +33666,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159428</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254373</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>270.4976243473741</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>328.0496171437443</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35184,7 +35184,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>340.604398260004</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,19 +35263,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>245.9137357376038</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.5838886097709</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35339,7 +35339,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35348,7 +35348,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396424</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>138.9023428740554</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>97.00034207341395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35588,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113551</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113551</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587111</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36290,16 +36290,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193518</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
